--- a/EasyAssetManager/wwwroot/UserSpace/ISHTIAQUE01/LOAN_TARGET.xlsx
+++ b/EasyAssetManager/wwwroot/UserSpace/ISHTIAQUE01/LOAN_TARGET.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>CTG 1</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>195</t>
   </si>
   <si>
     <t>Jashore Branch</t>
@@ -533,7 +530,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,34 +546,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -584,13 +581,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="E2" s="7">
         <v>1222</v>
@@ -604,8 +601,12 @@
       <c r="H2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="I2" s="1">
+        <v>500</v>
+      </c>
+      <c r="J2" s="1">
+        <v>50000</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -614,11 +615,11 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="5">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="E3" s="7">
         <v>1290</v>
@@ -632,8 +633,12 @@
       <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="I3" s="1">
+        <v>200</v>
+      </c>
+      <c r="J3" s="1">
+        <v>20000</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -642,11 +647,11 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="5">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="E4" s="7">
         <v>2003</v>
@@ -660,8 +665,12 @@
       <c r="H4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="I4" s="1">
+        <v>200</v>
+      </c>
+      <c r="J4" s="1">
+        <v>20000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EasyAssetManager/wwwroot/UserSpace/ISHTIAQUE01/LOAN_TARGET.xlsx
+++ b/EasyAssetManager/wwwroot/UserSpace/ISHTIAQUE01/LOAN_TARGET.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>CTG 1</t>
   </si>
@@ -37,34 +37,37 @@
     <t>Dhaka</t>
   </si>
   <si>
-    <t>ID_of_Area</t>
-  </si>
-  <si>
-    <t>Name_of_Area</t>
-  </si>
-  <si>
-    <t>Brn_Code</t>
-  </si>
-  <si>
-    <t>Branch_Name</t>
-  </si>
-  <si>
-    <t>ID_of_RM</t>
-  </si>
-  <si>
-    <t>Name_of_RM</t>
-  </si>
-  <si>
-    <t>ID_of_BST</t>
-  </si>
-  <si>
-    <t>Name_of_BST</t>
-  </si>
-  <si>
-    <t>Out_Standing_Amount</t>
-  </si>
-  <si>
-    <t>Disbursed_Amount</t>
+    <t>AREA_CODE</t>
+  </si>
+  <si>
+    <t>AREA_NAME</t>
+  </si>
+  <si>
+    <t>BRANCH_CODE</t>
+  </si>
+  <si>
+    <t>BRANCH_NAME</t>
+  </si>
+  <si>
+    <t>RM_CODE</t>
+  </si>
+  <si>
+    <t>RM_NAME</t>
+  </si>
+  <si>
+    <t>OS_TARGET_AMT</t>
+  </si>
+  <si>
+    <t>DISB_TARGET_AMT</t>
+  </si>
+  <si>
+    <t>INC_TARGET_AMT</t>
+  </si>
+  <si>
+    <t>BST_CODE</t>
+  </si>
+  <si>
+    <t>BST_NAME</t>
   </si>
 </sst>
 </file>
@@ -189,12 +192,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -527,149 +527,151 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>1222</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7">
-        <v>1234</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6">
+        <v>400</v>
+      </c>
+      <c r="J2" s="6">
+        <v>200</v>
+      </c>
+      <c r="K2" s="1">
         <v>500</v>
       </c>
-      <c r="J2" s="1">
-        <v>50000</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>1290</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7">
-        <v>1345</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6">
+        <v>500</v>
+      </c>
+      <c r="J3" s="6">
+        <v>300</v>
+      </c>
+      <c r="K3" s="1">
         <v>200</v>
       </c>
-      <c r="J3" s="1">
-        <v>20000</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>2003</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="7">
-        <v>1456</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6">
+        <v>500</v>
+      </c>
+      <c r="J4" s="6">
+        <v>400</v>
+      </c>
+      <c r="K4" s="1">
         <v>200</v>
-      </c>
-      <c r="J4" s="1">
-        <v>20000</v>
       </c>
     </row>
   </sheetData>
